--- a/Marketing/ucsb.roomme.xlsx
+++ b/Marketing/ucsb.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -440,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -560,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -590,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -610,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -620,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">

--- a/Marketing/ucsb.roomme.xlsx
+++ b/Marketing/ucsb.roomme.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">

--- a/Marketing/ucsb.roomme.xlsx
+++ b/Marketing/ucsb.roomme.xlsx
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">

--- a/Marketing/ucsb.roomme.xlsx
+++ b/Marketing/ucsb.roomme.xlsx
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">

--- a/Marketing/ucsb.roomme.xlsx
+++ b/Marketing/ucsb.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>linlin_131</t>
+          <t>aganib8</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>artemis_duuu</t>
+          <t>007__av</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vadaharpool</t>
+          <t>diegohernandez.11</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>samantha_secrist</t>
+          <t>ms.pena_morales</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lennon_becca</t>
+          <t>charlenescott1987</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jenthorning</t>
+          <t>aj_tharoadrunner13</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dominic_houghton</t>
+          <t>sakshith_o</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loisgrrr</t>
+          <t>eduzeballos</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>olivia.whyte1</t>
+          <t>kate.perez._</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>brisellio</t>
+          <t>jordanohansen</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>nae.jcc02</t>
+          <t>tfelix</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>i_luv_wuman</t>
+          <t>adii_josh</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>adriennerothh</t>
+          <t>chwell</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>_ultreya_</t>
+          <t>lleighn</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sharylblackington</t>
+          <t>mdragano</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>brooke.lindsay19</t>
+          <t>junchenjiang0320</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>leilyykhajavi</t>
+          <t>jessielukasik</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>kaylaaaamc</t>
+          <t>lawhkim</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>the_logburn</t>
+          <t>jkthecowboy</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jess.s.godfrey</t>
+          <t>neohendrix1</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>areszhangg</t>
+          <t>smithadepak</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ashmit.kalra</t>
+          <t>socal_bronco1</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>bethpan21377</t>
+          <t>pablois13</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>elle.sophia.karagounis</t>
+          <t>holagricelia</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>kyragossett</t>
+          <t>sedonaxr_</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>samantha.heinzz</t>
+          <t>npr3378</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hannahnusser</t>
+          <t>audreyshiin</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>keannaluu</t>
+          <t>jesusjmz7027</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>marysls</t>
+          <t>_iamraay</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>virangini_p</t>
+          <t>emilyw4de</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>dbrookss_</t>
+          <t>aj41426</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>__mariahjohnson_</t>
+          <t>hype.spammer</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sophia.degast</t>
+          <t>nikitha_srinivasan_</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mal.jin</t>
+          <t>scrippsresearch</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>natalienannoshi</t>
+          <t>mahal__kitta</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>rachael.berns</t>
+          <t>ucsd_sacm</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>misssammwoods04</t>
+          <t>laura0saurus</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>thanahanderson</t>
+          <t>celiinerios</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gracie.jg</t>
+          <t>umps.ucsd</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lucymbryant</t>
+          <t>demodn</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>priyajhaveri_</t>
+          <t>qibfitghi</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>kaylee_kirkpatrick</t>
+          <t>fina.love38</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>melina_zachou</t>
+          <t>girlwith5reasons</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>wz.wendy</t>
+          <t>rito_moises</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>_laurenpearson_</t>
+          <t>sebastian_lando</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sebass.torres23</t>
+          <t>davidthemechanic619</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>nataliefeyrer</t>
+          <t>the_original_mr_black</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>skyler.alten</t>
+          <t>bellasinfiltrosof</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>pipercheney</t>
+          <t>_lolaalbert_</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>roya.y15</t>
+          <t>debwalter_</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>annacalkins_</t>
+          <t>avgal</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>al.eggsandra</t>
+          <t>_jackie_chavez</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>kylie_huang</t>
+          <t>ashes__13</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>rockstarrmade1</t>
+          <t>username____not___found___</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>miaaolivaress</t>
+          <t>paulina_monroy06</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mia_roybal</t>
+          <t>fercobra777</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ucsbmootcourt</t>
+          <t>j_iokia</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mariahhjubilee</t>
+          <t>jr.rlr10</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ruzicka.nancy</t>
+          <t>ezmemtz88</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kambriaprado</t>
+          <t>la_toxica_purplekushonelove</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sowadevon</t>
+          <t>leo_ko_77</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>lexi.albanese</t>
+          <t>full_caj</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>stella.symonds</t>
+          <t>shreditwithshalyse</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>aalliecamacho</t>
+          <t>adrian.avila416</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>allegrasstudio</t>
+          <t>auhsd_counselors</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>liliisosaa</t>
+          <t>martaobregon1</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>katfraher</t>
+          <t>jamieandchristinany</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>isabelle.hartleyy</t>
+          <t>emi_tae_</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>lchris.559l</t>
+          <t>hiseriousimdad</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>madison.k.young</t>
+          <t>ladykirke</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>livsorensenn</t>
+          <t>xinwei.shi</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>innej2327</t>
+          <t>mitchie.me847</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>iisaacgomez</t>
+          <t>kalilove1904</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>avamarielyn</t>
+          <t>aspen_palms</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>thelangofliu</t>
+          <t>zac0gomez</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>jayyy_.04</t>
+          <t>jiyaakamble</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>camdensmitthh</t>
+          <t>user.10293156</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>noahdelarionda</t>
+          <t>montanx_07</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>chelsieakutz</t>
+          <t>celiceo47</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>always.anahi</t>
+          <t>sergio_adame1217</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>shreya_laksh</t>
+          <t>roblopez0611</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>benpaynee_</t>
+          <t>mzhang_5</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>annemariecarretta</t>
+          <t>carlos_may_be</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>__.kierramiller.__</t>
+          <t>dreams_cb94</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>miaefischer</t>
+          <t>tury_51</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>elizdesimone</t>
+          <t>bananamadge</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>eltonlep</t>
+          <t>23lexi</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>marianavvelazquez</t>
+          <t>coda__._</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>lirdoron</t>
+          <t>thebryanramirez</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>hayleyslome</t>
+          <t>csumbadmissions</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>_lilyforeman</t>
+          <t>alexisputrino</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>r0man555</t>
+          <t>salty_berries</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>avaortegaa</t>
+          <t>_ahmahri_</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>giasanselmo</t>
+          <t>thinkgood8888</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>nataliemoralestv</t>
+          <t>davevolo</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>dylan.falk</t>
+          <t>muzahran89</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>alexandraa.casillas</t>
+          <t>reynosareyna</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>hglicky</t>
+          <t>_el_compa_moy</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>zhenz_0615</t>
+          <t>aj.dhillon</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>iamshreyasrajesh</t>
+          <t>natural.high.619</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ava_nalder10</t>
+          <t>ashleyydang</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>brenna.isabella</t>
+          <t>ivwol8</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>elle.schuppan</t>
+          <t>arelyguzmandelcarmen</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>kittytralle</t>
+          <t>nidvp</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>aliyahdream</t>
+          <t>nene_lokz916</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>_madisonmacdonald</t>
+          <t>krazy_nuke_</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>arw.enn</t>
+          <t>avaduras</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>mtburli</t>
+          <t>svnadkarni</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>luciajohansenn</t>
+          <t>lmosk111</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>karla.ortizzz</t>
+          <t>waheed.moshfiq</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ciara.00</t>
+          <t>glowrys.me</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>rileyengland42</t>
+          <t>hoebag250r</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>kevin_size_wu</t>
+          <t>erinsmall428</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>gracieleider</t>
+          <t>iriealonso</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>isabellaperreiraa</t>
+          <t>ava.hoesel</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sophiiiabyron</t>
+          <t>heatherleemontague</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>valzzzz81</t>
+          <t>st4wb3rry.m4g1c</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>mackenzie_cochran_</t>
+          <t>dina_stephens</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>brookeroeker</t>
+          <t>chloee.chunn</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>catelynwsmith</t>
+          <t>siilverstone</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>palekalesierra</t>
+          <t>sandridge6544</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>marionsberna</t>
+          <t>tredford14</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>maedeanni</t>
+          <t>khushmundada</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>camilucas_</t>
+          <t>palsi347</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>megan.loiacono</t>
+          <t>sam259393</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>maevemansfield</t>
+          <t>felix_6657</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>idan.fire</t>
+          <t>chefnel4</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>brishtiiii</t>
+          <t>squaredmommy</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>mikayla.walshh</t>
+          <t>hdelaney00</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>gowrinadella</t>
+          <t>mistergio9</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,1507 +1748,1507 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>veronicatexidorr</t>
+          <t>phoenixfeat</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>_.madisonwilliams</t>
+          <t>vanisood2106</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>lexi.kinne</t>
+          <t>karenromero1987</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>rileymiles1</t>
+          <t>a.pies.de.ale</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>kasey.nxn</t>
+          <t>isaac_76oo</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>clark_enge23</t>
+          <t>__its.anniee</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>sagemperez</t>
+          <t>dana.madrid.50</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>rioviecco</t>
+          <t>california.canabis.connoisseur</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>autumnnzusman</t>
+          <t>yetlaneztenorio</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>dongkayla1215</t>
+          <t>xinyi_xue</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>chinexican</t>
+          <t>jannalovesdogs</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>janielandgraff</t>
+          <t>zoomer9927</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>jadenherrera_</t>
+          <t>jord.mont</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>siliabee</t>
+          <t>jossie_lares</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>chrissss3388</t>
+          <t>shreyasis9</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>kieradarnelll</t>
+          <t>melissa50601</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>_ellawaters</t>
+          <t>its_niick_</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ttaylorharveyy</t>
+          <t>_zamzx</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>emily_levin88</t>
+          <t>tink_yaneth</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>lilytetaa</t>
+          <t>anh__denn</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>julyo._</t>
+          <t>preciadojn</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>diya.deshpande_</t>
+          <t>zinniaagcarao</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>finnpbyrne</t>
+          <t>onemagnitude</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>alexis.goularte</t>
+          <t>reecar._.dough</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>mariomaravilla5</t>
+          <t>macyseng</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>kayleeadaly</t>
+          <t>kristinahale42</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>eemaanjan05</t>
+          <t>yani_chingas88</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>sweetmontesclaros</t>
+          <t>jgutz_83</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>jocelyndubdub</t>
+          <t>terryblueberry_</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>shivamthaparr</t>
+          <t>angelasand221</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>hayleythoits</t>
+          <t>robgarciasj</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>julianastvv</t>
+          <t>mjett74</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>hannah.hacohen</t>
+          <t>miraclelynn_</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>tessamontanile</t>
+          <t>radamvivian</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>alysssa.boucher</t>
+          <t>s06_ia</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>kharyys</t>
+          <t>biankita_bash</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>milenamarsowicz</t>
+          <t>sebasmunoz13</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ashley.a22</t>
+          <t>maymayseymour</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>hollysheibani</t>
+          <t>areyushittingmydick</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ksines1</t>
+          <t>pikyan12</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>summerrrjackson</t>
+          <t>edabrahamavila</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>aalexagonzz</t>
+          <t>pamebj48</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>alex.micsa</t>
+          <t>_godzillawiththemicrowave_</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>pia_om</t>
+          <t>joycewassef_</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>brady.craven</t>
+          <t>irlwizard</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>its_sarah_fathima</t>
+          <t>favoritevirgo17</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>megna_n</t>
+          <t>hammadelf</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>kkyyyraa</t>
+          <t>all_time_low_simp</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>_abbyco</t>
+          <t>matias_acevedo3</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>angelinavaladezz</t>
+          <t>kaliqueenogloud_sd87</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>eddi_</t>
+          <t>xiaolvma2019</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>emrecksr</t>
+          <t>nilsrmer</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>jillian.gloss</t>
+          <t>stevewartenberg</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>avas__d</t>
+          <t>sunaychung</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>joseliin.fiigueroa</t>
+          <t>alfredo.hurtado.73</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>natalia.trancoso</t>
+          <t>bbopbrw</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>nika_abdi_</t>
+          <t>debsjm2</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>bereniice.martinezz</t>
+          <t>phoebiejomondi</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>_imharris</t>
+          <t>danaaa_le</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>maddieebuckley</t>
+          <t>yccxxy</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ss0phieee</t>
+          <t>sa3id_86</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>laura02aa</t>
+          <t>zoemumuxi</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>stellarhodess</t>
+          <t>chrismccoy829</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>lucafrancsicomartinez</t>
+          <t>sarah_nayeri</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>nlcooke_12</t>
+          <t>jerrbear_bacon</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>sydney.elias</t>
+          <t>freakingcatlady</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>_dtruonggg_</t>
+          <t>kalei3000</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>marinakuzmina9448</t>
+          <t>galinamalysheva7011</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>chelseadavatos</t>
+          <t>ntroverted</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>shelsy_marquez14</t>
+          <t>lily.weinstock</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>satviktalchuru</t>
+          <t>golden.ria</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>allyzalugassy</t>
+          <t>flea_gbr</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>camilaxlucia</t>
+          <t>anishagoyal_07</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ellaesweeney</t>
+          <t>go_khart</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>bbeeers_27</t>
+          <t>rheamistryy</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ninar.2021</t>
+          <t>kv_jeep</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>xoxoo.bella</t>
+          <t>kathleenn.2</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>aravacherbinsky</t>
+          <t>bucketlistjustin</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>alan7zl</t>
+          <t>marshanmallow__</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ryderingold</t>
+          <t>josharguelless</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>miamoneymaker_</t>
+          <t>cmontesfly</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>gracie_dowd</t>
+          <t>yoboi_nico</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>jd.gravett</t>
+          <t>jerry_peb_coco</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li.feiyang315</t>
+          <t>claribelchunga</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>peytoki</t>
+          <t>hollowtip22</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>sunny_iieee</t>
+          <t>peyefuentes</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>rachellrobinsonn</t>
+          <t>leonardoalcaraz_</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>avacathey</t>
+          <t>itskamrran</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>joy_a217</t>
+          <t>francescadraughon</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>maddieamlen</t>
+          <t>fati5m.a</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>frankslandscaping</t>
+          <t>ee6vittorei839</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>a.caulifleur</t>
+          <t>bet.onit_72s</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>stansherry</t>
+          <t>whidbey72</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>monica.ballas</t>
+          <t>jmiguel_figueroa</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>_evelynnsalazar_</t>
+          <t>sly858</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>rubisrevenge</t>
+          <t>sion_hu</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ameliafischer_</t>
+          <t>roge23641</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>rhondabelous777</t>
+          <t>jordanshin7777</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>victoria.m.wells</t>
+          <t>alexcruz98829</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>belladursooo</t>
+          <t>kimberleypf</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>christian_b180</t>
+          <t>gisselly_65</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>audrey.w.2005</t>
+          <t>igor.ferreira126</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>miriammiddlesworth</t>
+          <t>_oliviaetri_</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>jenlfranks</t>
+          <t>vvalentinq_</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ariiana_anayaa</t>
+          <t>elchiko_1904</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>elibigelow18</t>
+          <t>kenna.miyazaki</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>kirarileyy</t>
+          <t>alejandrakamea</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>megan.ket</t>
+          <t>jxyxacxo</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>gabrieladavidsonn</t>
+          <t>chloe.venez.running</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>chercolette</t>
+          <t>bennys_chapter444</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>gwarcat</t>
+          <t>masnaes_0508</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>joseph_lzy</t>
+          <t>robertmorse004</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>caterogoff</t>
+          <t>ye_thu_ya_thein</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>adella.frender</t>
+          <t>roberta_cavallaro95</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>masonwatters</t>
+          <t>gustavogalaviz01</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>adiya.marcus</t>
+          <t>kani.sharma</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>emmafchy</t>
+          <t>ceovandigo</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>nathanvooo</t>
+          <t>chrisfranzzz</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>kathy.kuang.73</t>
+          <t>lifeofp.222</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>keiradawsonn</t>
+          <t>ryry_giang</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>gisellejalex</t>
+          <t>avneetanand11</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>sofie.olson</t>
+          <t>admitium</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>michellebuchanan_</t>
+          <t>scottyboy.36</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>cannedwill</t>
+          <t>singhpalvinder2011</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>carrie.teichrow</t>
+          <t>_connietran_</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>nathnchao</t>
+          <t>baba_ghanoushka</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>yisi_lyu</t>
+          <t>heathercoller</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>alyssadavinaa</t>
+          <t>michelefrank65</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ava.weeden</t>
+          <t>anc_2444</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>maxreidd_</t>
+          <t>iamjesusgarcia_</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>sam.carpenter_</t>
+          <t>giauway</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>fya.adriann</t>
+          <t>r_izco</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>kristensuhh</t>
+          <t>kevsalcaraz1017</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>666777888_ie</t>
+          <t>joelayolay</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>nancyoliivares</t>
+          <t>therealkhanhle</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>niraj_dhaliwal</t>
+          <t>gramitwj</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ryan_hurley05</t>
+          <t>dillondanesky</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ucsbroundnet</t>
+          <t>amevonmoren</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>lessliepena</t>
+          <t>queenmommybee</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>jakobsierra</t>
+          <t>cameron.keeney</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>luckylady916</t>
+          <t>noahkhan14</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>kimmybahena</t>
+          <t>mya.3879</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>cadenelson05</t>
+          <t>veds__</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>katkagann</t>
+          <t>audrey.fitz</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>sydney.parkinsonnn</t>
+          <t>eddie1915</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>reynoldsmeyer</t>
+          <t>619._.franky</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>rh_karla12</t>
+          <t>vahrun_05</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>jordanicodemus</t>
+          <t>annettemf27</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>sienna.loar</t>
+          <t>josegutavms_</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>jxhnkubiak</t>
+          <t>dinakshi.sahar</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>jake_kallimanis</t>
+          <t>ilceja</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>gisellexmx</t>
+          <t>ag.pae</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>brendaaaguilarr</t>
+          <t>frida11.24</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>imbickyc</t>
+          <t>grennarose26</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>sabasalavi</t>
+          <t>nessa_edneric</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>__katheriiineee</t>
+          <t>___desiree.ann___</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>joshtobii</t>
+          <t>lelandwatkins_</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>orion.padilla</t>
+          <t>xdancingrose</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>karlabeati</t>
+          <t>sam_realp</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>4l1ssa</t>
+          <t>lisapete90</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>christinaruilin</t>
+          <t>maanya_sreegiriraju</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ruslan_tavrow</t>
+          <t>enersto.beau</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>timwiin</t>
+          <t>shanaytolat</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>kenzconnor</t>
+          <t>avaschoenn</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>just_jackie_24</t>
+          <t>becca_castr0</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>katrinawrightt</t>
+          <t>bibinur.nur</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>giannarodriguess</t>
+          <t>liam.ffindleyy</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>avamullerr</t>
+          <t>laulfvli</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>nataliarosebanks</t>
+          <t>manam.ham</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>gavinkeslerr</t>
+          <t>terryhsu007</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>grace__doud</t>
+          <t>monica.rami1113</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>michelle.najeraaa</t>
+          <t>thetaylorholt</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>elliematthews_</t>
+          <t>universecookingfish</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>sophiejarek</t>
+          <t>sanddy20811</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>_willpemberton</t>
+          <t>maribire2023</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>tony_x_1127</t>
+          <t>bhaas00</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>shriyapendurkar</t>
+          <t>loodekres</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>heather_mahoney17</t>
+          <t>ericchne31</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>zach.touger</t>
+          <t>amotasantillan7</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>nataliaacef</t>
+          <t>authenticvkk</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>edena.i</t>
+          <t>nitya.shiv</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>jaya.chohan_</t>
+          <t>mauryagajjar</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>delaneyshanley</t>
+          <t>sabrinamaharry</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>fye.fr</t>
+          <t>ptao33</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>emma.cantuu</t>
+          <t>raaguirre28</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>makalaforester</t>
+          <t>tiashrikhande</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>finn.genc</t>
+          <t>_luciecharles</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ashley_neier</t>
+          <t>_conkim_</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>madelynminami</t>
+          <t>moslayyy</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>emmeebutler</t>
+          <t>donooo.hhhhh</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ariannameei</t>
+          <t>k8.malig</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>lily_elise30</t>
+          <t>admissions_with_dilyara</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>sofialmigliazza</t>
+          <t>younan619</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>zayan92926</t>
+          <t>cheesysmile2023</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>angiliqee</t>
+          <t>cernzh</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>k.tarin321</t>
+          <t>lizbeth_quinonez17</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>solanacobb</t>
+          <t>aaronmom</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>laprimagianna</t>
+          <t>lexiii_loveee7</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>l_combest05</t>
+          <t>lizzkar256</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>alanaanielsen</t>
+          <t>ddannyflores</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>enyalarsen</t>
+          <t>bebeglo</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>_caliward</t>
+          <t>bethier</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>alexx.andraa4</t>
+          <t>traceywhaley</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>caterminator2_judgementday</t>
+          <t>danzig11</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>jazzyestrellasf</t>
+          <t>amara.oke_</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>clara.laughlin</t>
+          <t>luciagrossi_</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>avanilllaa</t>
+          <t>ellegirardd</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>sandrea.uthomas</t>
+          <t>_ella_davis</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>eileen._.kwon</t>
+          <t>tamongomezbzn</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>duke_ottman</t>
+          <t>divineelaughterzz420</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>kabirxsodhi</t>
+          <t>chadturner660</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>parkeringlis</t>
+          <t>mihirkm</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>yun.ererin</t>
+          <t>sam_n_elka_life_in_cali</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>raqk10_</t>
+          <t>peacco</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>demirathaker</t>
+          <t>1_to_none</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>malasauce</t>
+          <t>estradabeltranesteban</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ryliequoyeser</t>
+          <t>rascal619_cb7</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>rose__payton</t>
+          <t>willliamsimpson</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>riona.pampati</t>
+          <t>troodontamer.69</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>yam._.lee</t>
+          <t>jackie_serena_gg</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>marritzaruby</t>
+          <t>becca.fruit</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>grady3ward</t>
+          <t>carrasco_cristina</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>isa_alvarezzzz</t>
+          <t>emmanuelnunoe</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>allisonmmyers</t>
+          <t>simrankooner4u</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>cole_shepard_</t>
+          <t>sydneyherstein</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>_kaylayap</t>
+          <t>christopher123918</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>isaacj_33</t>
+          <t>29_akank</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>dynastymm1</t>
+          <t>erasmoruiz4bethelsb</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>mandyschoen_</t>
+          <t>mlinams_pv</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>lily.wylie</t>
+          <t>leila.eustace</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>zach.samatovicz</t>
+          <t>brown_eyedtrojan</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>sithumini_m</t>
+          <t>brad.siebert</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>sydney.jarnagin.50</t>
+          <t>msyto</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>serenityr0sario</t>
+          <t>415pauline</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>luke.trigler</t>
+          <t>manuopazo_</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>andrewktaylor</t>
+          <t>yasaminnn4_</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>kellymariedar</t>
+          <t>mandyy.luuu</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>julianna.taj</t>
+          <t>luzqueylumina</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>sophiajensenn_</t>
+          <t>th3_catmonster</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>flutterstorm_</t>
+          <t>that_vibes_7235</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>sariyasade</t>
+          <t>shru_honey</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>sonja.2p2n</t>
+          <t>jonsnowtargaryen55</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>hunter_shrier</t>
+          <t>elllie_ee</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>_zachstephens_</t>
+          <t>fotoalbertomercado</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>isabelllareinaa</t>
+          <t>joannashan_</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>alliejocollins</t>
+          <t>jrosario_2321</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>_7uc14</t>
+          <t>john_____heeeee</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>vrind.uhh</t>
+          <t>ulicesdagreat</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>e.lee_c</t>
+          <t>toledodelmuro</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>carolineliu_</t>
+          <t>kayla.wheatleyyy</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>izzyhartmann</t>
+          <t>4lvar4</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ronaknagarajan4</t>
+          <t>kooks5674</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>jessicamilmoe</t>
+          <t>makzacc</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>sofiagupta_</t>
+          <t>p.a.s.h.t.u.n.7</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>natalieemejiaa</t>
+          <t>melimossshineon</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>sirikandi</t>
+          <t>noodlessd619</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>v1ctor33a</t>
+          <t>ethandointhings</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>haydenstengler</t>
+          <t>alfajoreeee</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>alexandri.ugh</t>
+          <t>themehulpatwari</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>brooklyn.cumes</t>
+          <t>andjelinapopovic</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>simply.nxtaly</t>
+          <t>jovani_makaveli</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>juliette.jackman</t>
+          <t>jazz77</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>raokiran07</t>
+          <t>ksr811_deaf</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>belmanlorna</t>
+          <t>sciencebridgelabs_suhi</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>sydney.kauff</t>
+          <t>leahastar</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>nikki.murnane</t>
+          <t>rnavaruben</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>kphm1</t>
+          <t>eddieberto_gp</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>david.meshreky</t>
+          <t>esnee_moy_</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>marisa.k.l</t>
+          <t>kuhl_low</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>mikaylaa_mart</t>
+          <t>kaylasophjohnson</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>nick.ferraro1</t>
+          <t>kazx23</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>andy_amado10</t>
+          <t>eddyabraham</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>sophiestrozier</t>
+          <t>baboucarr1552</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>gus.schaffler</t>
+          <t>sudish1011</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>stevie.1017</t>
+          <t>charles_qian_</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>drakepxrez</t>
+          <t>ltwasz</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>susan.langer2</t>
+          <t>besa.rp</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>_ciaraacuna_</t>
+          <t>alexandrevieira2k</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>cat_hardy04</t>
+          <t>motoski_</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>alyssa.mgoebel</t>
+          <t>k.i.m.m.y.l</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>abby.brotman</t>
+          <t>van0sl</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ameya37</t>
+          <t>raym0nd.96</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>cole.wittkop</t>
+          <t>bethrashed</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>hunterrgross</t>
+          <t>briannaleonard_</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>samloe_05</t>
+          <t>ercfirstgen</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>jadafeng</t>
+          <t>yigui_1969</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>avery_leila_k</t>
+          <t>tilldefdous</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>jun.yoon_</t>
+          <t>julio_kutrolli</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>zz._zay</t>
+          <t>sheis_what</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>annadilgerr</t>
+          <t>mariamejia2138</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>hebeeeeeee_ee</t>
+          <t>jeoa33</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>aashhleeyy_g</t>
+          <t>user23155225</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>eddieh1ll</t>
+          <t>maha_alnajdawi</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>v1oletttt</t>
+          <t>jaylenn1999</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>julia.biesek</t>
+          <t>keii.185</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>serena_bond_</t>
+          <t>averyanderrsonn</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>011kamilaa</t>
+          <t>cdrey5</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>rebekahholder</t>
+          <t>catsazevedo</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>wongielzz</t>
+          <t>t.s.ruiz</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>edenlabaniego</t>
+          <t>camrynwalker_</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ximena.vll</t>
+          <t>jeankeshishian1</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>k3isi.g</t>
+          <t>itz_his_bbg</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>sapharaa_espinosa</t>
+          <t>chloecurvat</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>jenna.van.dyke</t>
+          <t>alysgarman</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>oliviadaviss.__</t>
+          <t>xoxo.yamss</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,10 +4798,860 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>harleengiill</t>
+          <t>tracee_kayy</t>
         </is>
       </c>
       <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>esthela1181</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>darinka7439</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>yasar_5399</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>erikcaliforn1a</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>jens.journee</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>lilianaramirez3140</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>ihrtpen</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>my_sunshines</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>carolineswalker</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>alverez_77v</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>pch9605</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>jessikakaarr</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>ucsdtymmn</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>7arxmentadoo</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>viehyn2393</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>frankluuu91</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>tylr.lee</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>shackelford.lisa</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>henokdagne</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>amber_hoddle</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>cindy.clampitt</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>megannkenefick</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>spidersdrinkingrocks</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>popping5563</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>nkkeshwani</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>rryan.img</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>nathaly_yyyyy</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>missromo86</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>shy.lh.7</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>lucaradovic</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>rujiawen</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>annakarenest</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>venusgonzalez85</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>keerthanaaav</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>gexxesis</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>cprfisher_</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>0x.j300</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>bea_modele</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>heysheils</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>sreeban</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>srjcstem</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>ryan_archuleta_</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>lperesmoon</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>alexander_alvear779</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>tolani_lizzy</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>oreo980</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>topnotchresearch</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>robertoarriaga68</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>clivie71</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>maxwell.j.weaver</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>rwwilner</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>enhar_ht</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>cvrlosfx__</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>malchnthat</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>lahavard4</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>arunee727</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>miikaylajanaee</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>christinaferguson540</t>
+        </is>
+      </c>
+      <c r="B495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>kat.noriega</t>
+        </is>
+      </c>
+      <c r="B496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>qingqxu</t>
+        </is>
+      </c>
+      <c r="B497" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>frenchie79_</t>
+        </is>
+      </c>
+      <c r="B498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>sehejhog05</t>
+        </is>
+      </c>
+      <c r="B499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>k.ivonguevara</t>
+        </is>
+      </c>
+      <c r="B500" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>kenardgas</t>
+        </is>
+      </c>
+      <c r="B501" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>rob4rtot</t>
+        </is>
+      </c>
+      <c r="B502" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>mexicanaychingona</t>
+        </is>
+      </c>
+      <c r="B503" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>marcelaruizduran</t>
+        </is>
+      </c>
+      <c r="B504" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>jj.2201.2</t>
+        </is>
+      </c>
+      <c r="B505" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>yuridia_camarillo</t>
+        </is>
+      </c>
+      <c r="B506" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>flakillods</t>
+        </is>
+      </c>
+      <c r="B507" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>melindawhitmore7222</t>
+        </is>
+      </c>
+      <c r="B508" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>torrez_scarleth</t>
+        </is>
+      </c>
+      <c r="B509" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>lizayefremova</t>
+        </is>
+      </c>
+      <c r="B510" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>nareenladjavardi</t>
+        </is>
+      </c>
+      <c r="B511" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>briksam_gad</t>
+        </is>
+      </c>
+      <c r="B512" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>hanyux679</t>
+        </is>
+      </c>
+      <c r="B513" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>s_patr01</t>
+        </is>
+      </c>
+      <c r="B514" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>archit_thapaa</t>
+        </is>
+      </c>
+      <c r="B515" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>elizahirshey</t>
+        </is>
+      </c>
+      <c r="B516" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>g__flrs__garcia</t>
+        </is>
+      </c>
+      <c r="B517" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>fominjennifer</t>
+        </is>
+      </c>
+      <c r="B518" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>lisvetthe</t>
+        </is>
+      </c>
+      <c r="B519" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>alexaaaroseeeee</t>
+        </is>
+      </c>
+      <c r="B520" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>1357noemi</t>
+        </is>
+      </c>
+      <c r="B521" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>roman_huang_bf</t>
+        </is>
+      </c>
+      <c r="B522" t="b">
         <v>0</v>
       </c>
     </row>
